--- a/medicine/Enfance/Mila_Éditions/Mila_Éditions.xlsx
+++ b/medicine/Enfance/Mila_Éditions/Mila_Éditions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mila_%C3%89ditions</t>
+          <t>Mila_Éditions</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mila Éditions[2] est une maison d'édition française fondée en 1985, et installée à Paris. Elle est spécialisée en littérature jeunesse.
+Mila Éditions est une maison d'édition française fondée en 1985, et installée à Paris. Elle est spécialisée en littérature jeunesse.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mila_%C3%89ditions</t>
+          <t>Mila_Éditions</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La maison Mila Éditions a été fondée 1er octobre 1985 par Mila Boutan, sur ses fonds propres, et ses enfants, Sylvie Genevoix et Alexandra Le Guay. Mila Boutan en a assuré la direction jusqu'en 1996, date à laquelle Albin Michel a racheté la société. Dirigée par Benoît Rouillard jusqu'en 2021, Mila Boutan en assurait la direction artistique pendant quelque temps.
-En juillet 2022, le groupe rue des écoles auquel appartient Mila Éditions est racheté par la société Sodi-Art Editions dirigée par Didier Ballot [3].
+En juillet 2022, le groupe rue des écoles auquel appartient Mila Éditions est racheté par la société Sodi-Art Editions dirigée par Didier Ballot .
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mila_%C3%89ditions</t>
+          <t>Mila_Éditions</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La maison compte environ 160 ouvrages à son catalogue. Elle publie des albums, des documentaires, des livres d'éveil, etc. L'essentiel de sa production est constituée de livres et de cahiers d'activité et de loisirs créatifs (coloriage, objets à construire, découpage, gommettes, recettes de cuisine, etc.)[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La maison compte environ 160 ouvrages à son catalogue. Elle publie des albums, des documentaires, des livres d'éveil, etc. L'essentiel de sa production est constituée de livres et de cahiers d'activité et de loisirs créatifs (coloriage, objets à construire, découpage, gommettes, recettes de cuisine, etc.).
 À ses débuts, on note quelques personnages récurrents : Clara Clara, Elsa et Mouk (créé par Marc Boutavant).
 La production est répartie en collections (liste non exhaustive) :
 Les Petites Tribus : pour découvrir les cultures et les coutumes à travers le récit d’un enfant de Chine, d’Afrique, d’Australie ou d’Inde. Dès 8 ans.
